--- a/curation/draft/package12/R12_BC_IE.xlsx
+++ b/curation/draft/package12/R12_BC_IE.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EED31AA-4224-491E-8555-10FF1BBA8E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36F47E2-0064-489F-B27F-330E3C9CC8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18A89C13-B655-9647-BB64-C0D5BA3E4A4E}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_IE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>C82438</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>R12</t>
+  </si>
+  <si>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
@@ -578,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F421BC44-0862-F24F-9317-637FEF1204DC}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -676,7 +679,9 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
